--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A0BC3-63F9-4C11-A719-683681500E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D6EA0-FFE3-4C7B-9FC1-DC581EC2B99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,230 @@
   </si>
   <si>
     <t>백귀의 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive7</t>
+  </si>
+  <si>
+    <t>passive8</t>
+  </si>
+  <si>
+    <t>passive9</t>
+  </si>
+  <si>
+    <t>requireMaxAbil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requireUserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfoTableType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grt3</t>
+  </si>
+  <si>
+    <t>cf7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockMaskDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환수의 시련에서 획득 가능</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백귀야행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백귀의 힘 10000레벨 달성 및
+하단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계 클리어 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하단전 패시브 2500000레벨 달성 및
+중단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계 클리어 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단전 패시브 2500000레벨 달성 및
+상단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계 클리어 시 개방</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단전 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +375,52 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9A26D"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9A26D"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9A26D"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,9 +445,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,13 +772,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
@@ -507,9 +786,15 @@
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +822,23 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -563,8 +863,17 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -589,8 +898,17 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -615,8 +933,17 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
@@ -641,8 +968,17 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
@@ -670,8 +1006,20 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
@@ -699,8 +1047,20 @@
       <c r="I7" t="s">
         <v>21</v>
       </c>
+      <c r="J7">
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6</v>
       </c>
@@ -724,6 +1084,141 @@
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>1E-8</v>
+      </c>
+      <c r="F9">
+        <v>2500000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>1E-8</v>
+      </c>
+      <c r="F10">
+        <v>2500000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>1E-8</v>
+      </c>
+      <c r="F11">
+        <v>2500000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PassiveSkill.xlsx
+++ b/Assets/06.Table/PassiveSkill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4D6EA0-FFE3-4C7B-9FC1-DC581EC2B99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD824574-CAAA-4512-AB99-777B1BCCF0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PassiveSkill" sheetId="1" r:id="rId1"/>
@@ -245,6 +245,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>하단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단전 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -254,7 +266,7 @@
         <charset val="129"/>
       </rPr>
       <t>백귀의 힘 10000레벨 달성 및
-하단전</t>
+수련-혈자리-하단전</t>
     </r>
     <r>
       <rPr>
@@ -287,7 +299,7 @@
         <charset val="129"/>
       </rPr>
       <t>하단전 패시브 2500000레벨 달성 및
-중단전</t>
+수련</t>
     </r>
     <r>
       <rPr>
@@ -296,6 +308,44 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈자리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> 15</t>
     </r>
     <r>
@@ -320,7 +370,7 @@
         <charset val="129"/>
       </rPr>
       <t>중단전 패시브 2500000레벨 달성 및
-상단전</t>
+수련</t>
     </r>
     <r>
       <rPr>
@@ -329,6 +379,44 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혈자리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상단전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9A26D"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> 15</t>
     </r>
     <r>
@@ -341,18 +429,6 @@
       </rPr>
       <t>단계 클리어 시 개방</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중단전 강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단전 강화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +851,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -791,7 +867,7 @@
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.125" customWidth="1"/>
+    <col min="14" max="14" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1098,7 +1174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27">
+    <row r="9" spans="1:14" ht="40.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1118,7 +1194,7 @@
         <v>2500000</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1136,10 +1212,10 @@
         <v>15</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="27">
+    <row r="10" spans="1:14" ht="40.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1159,7 +1235,7 @@
         <v>2500000</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1177,10 +1253,10 @@
         <v>15</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="27">
+    <row r="11" spans="1:14" ht="40.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1200,7 +1276,7 @@
         <v>2500000</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1218,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
